--- a/docs/好店.xlsx
+++ b/docs/好店.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11003"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haowu/IdeaProjects/ai-product-selector2/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9EF9279-4E31-8E40-BAEB-2F91C9849FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="7305" windowHeight="1365"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="60160" windowHeight="33220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="5">
   <si>
     <t>否</t>
   </si>
@@ -43,18 +48,16 @@
   <si>
     <t>已取数</t>
   </si>
+  <si>
+    <t>已取数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,345 +66,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -409,310 +97,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -970,19 +373,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -1002,8 +405,8 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1061,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2612104</v>
       </c>
@@ -1091,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>3379337</v>
       </c>
@@ -1099,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>3267630</v>
       </c>
@@ -1107,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>3341151</v>
       </c>
@@ -1115,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2912301</v>
       </c>
@@ -1123,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>3096582</v>
       </c>
@@ -1164,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>2860480</v>
       </c>
@@ -1183,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>3177388</v>
       </c>
@@ -1213,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>3186722</v>
       </c>
@@ -1221,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>3237725</v>
       </c>
@@ -1240,7 +643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>3288505</v>
       </c>
@@ -1270,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>2991011</v>
       </c>
@@ -1289,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>2988946</v>
       </c>
@@ -1341,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>1766142</v>
       </c>
@@ -1349,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>2639677</v>
       </c>
@@ -1357,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>2961202</v>
       </c>
@@ -1376,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>2968358</v>
       </c>
@@ -1384,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>3007298</v>
       </c>
@@ -1403,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>2967270</v>
       </c>
@@ -1422,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>3356726</v>
       </c>
@@ -1430,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>3346376</v>
       </c>
@@ -1482,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>2436865</v>
       </c>
@@ -1490,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>3226467</v>
       </c>
@@ -1498,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>1563524</v>
       </c>
@@ -1506,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>2594658</v>
       </c>
@@ -1514,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>1805389</v>
       </c>
@@ -1522,7 +925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>2946146</v>
       </c>
@@ -1530,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>3390191</v>
       </c>
@@ -1538,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>2809080</v>
       </c>
@@ -1546,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>3287983</v>
       </c>
@@ -1554,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>2744198</v>
       </c>
@@ -1562,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>3072725</v>
       </c>
@@ -1570,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>3280072</v>
       </c>
@@ -1578,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>3116053</v>
       </c>
@@ -5154,12 +4557,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:2">
       <c r="A511">
         <v>1214977</v>
       </c>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" spans="1:2">
       <c r="A512">
         <v>1215152</v>
       </c>
@@ -19375,11 +18778,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:B3354" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="B1:B3354" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>